--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/108.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/108.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2748269190278015</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.616151074431486</v>
+        <v>-1.779827557481564</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1482159467786227</v>
+        <v>-0.125504940459232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0742282232381615</v>
+        <v>-0.006392311655750297</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2832184656653147</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.859593593507352</v>
+        <v>-1.743379307759777</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2442314894743322</v>
+        <v>-0.1550818238367756</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04217506191302081</v>
+        <v>-0.01604613612731856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2980429236398451</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.945940673635251</v>
+        <v>-1.785137526893333</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3368808799550692</v>
+        <v>-0.1952914543720681</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02789079566976584</v>
+        <v>-0.04675808188429027</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3082373823310038</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.043644476764199</v>
+        <v>-1.811841073962716</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2433050199663519</v>
+        <v>-0.1375917385103483</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01801488406567674</v>
+        <v>-0.02351644457612877</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3059770121446635</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.915839258475704</v>
+        <v>-1.834746035057313</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3006509818355578</v>
+        <v>-0.05317261764164959</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02906855249656634</v>
+        <v>-0.04393780867500725</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2867419038801069</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.590356309170457</v>
+        <v>-1.595094172987436</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0766149188524612</v>
+        <v>0.1426247279286887</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006178763412703925</v>
+        <v>-0.07389345279281137</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2508075315212753</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.364961952840242</v>
+        <v>-1.301843701686293</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06794184682910381</v>
+        <v>0.1854027344337673</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02079436859580219</v>
+        <v>-0.03104957485464404</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2018357153061932</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.013792804154427</v>
+        <v>-0.8023778297352778</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04399384537108351</v>
+        <v>0.1971967705600444</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1774903095004992</v>
+        <v>-0.07870389717032329</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1411238809398699</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6201737862876234</v>
+        <v>-0.1726243623414032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1007811199003882</v>
+        <v>0.242555351448444</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1316334234191965</v>
+        <v>-0.04495027699840903</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06964611607122774</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2758863725975564</v>
+        <v>0.5683084956134911</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08498112476922975</v>
+        <v>0.1047846392225625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04089422849184988</v>
+        <v>0.01177356578051386</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01375341578139465</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4707962075770418</v>
+        <v>1.453910878568964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01765381102504189</v>
+        <v>-0.120561533374189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1714020052990156</v>
+        <v>0.1601581176231651</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1102890296669068</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8677673494832525</v>
+        <v>2.214655789866665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1088887954564001</v>
+        <v>-0.2033009326991236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2374198193502254</v>
+        <v>0.2504477250055639</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2184149696531328</v>
       </c>
       <c r="E14" t="n">
-        <v>1.334603075148923</v>
+        <v>3.031496935566916</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2609207489521894</v>
+        <v>-0.4896013578887224</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4907833081540756</v>
+        <v>0.4257218497240068</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3378220200471956</v>
       </c>
       <c r="E15" t="n">
-        <v>2.009078976165349</v>
+        <v>3.947505084099634</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6344666674265375</v>
+        <v>-0.8662420138768901</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5166323563553351</v>
+        <v>0.5698040211128773</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4657701166790463</v>
       </c>
       <c r="E16" t="n">
-        <v>2.844046354457875</v>
+        <v>4.756873481668367</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9718424600076955</v>
+        <v>-1.132995091297391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6157316579926828</v>
+        <v>0.7352065796781528</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5957298667046602</v>
       </c>
       <c r="E17" t="n">
-        <v>3.198738404972587</v>
+        <v>5.351579077214268</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.137618290027141</v>
+        <v>-1.434203197668066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6165959155916347</v>
+        <v>0.8943867274992447</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7255360174470745</v>
       </c>
       <c r="E18" t="n">
-        <v>3.845392164398474</v>
+        <v>5.876512187022898</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.358405915485877</v>
+        <v>-1.763320054365378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6787279250112827</v>
+        <v>1.044415015565732</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8552157758142971</v>
       </c>
       <c r="E19" t="n">
-        <v>4.08234146794968</v>
+        <v>6.220002434388455</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.71013253167024</v>
+        <v>-2.17453772343907</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9560381194256152</v>
+        <v>1.236741912485374</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9849917607790145</v>
       </c>
       <c r="E20" t="n">
-        <v>4.513695668166209</v>
+        <v>6.406000184445483</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.899980101038901</v>
+        <v>-2.582073301387234</v>
       </c>
       <c r="G20" t="n">
-        <v>1.131614154879048</v>
+        <v>1.44261148811153</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.112241950410118</v>
       </c>
       <c r="E21" t="n">
-        <v>4.930575230882154</v>
+        <v>6.643294703099729</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.16802011108734</v>
+        <v>-2.867873591621899</v>
       </c>
       <c r="G21" t="n">
-        <v>1.305884960084241</v>
+        <v>1.56475908220251</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.22927316393801</v>
       </c>
       <c r="E22" t="n">
-        <v>5.189435324824857</v>
+        <v>6.722072057708507</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.585806625849609</v>
+        <v>-3.239204888118975</v>
       </c>
       <c r="G22" t="n">
-        <v>1.226994160229586</v>
+        <v>1.703616673074356</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.331905818332134</v>
       </c>
       <c r="E23" t="n">
-        <v>5.369662005438494</v>
+        <v>6.73915227634016</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.75549936645513</v>
+        <v>-3.596264345740485</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49022067629713</v>
+        <v>1.79396727252443</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.417357742172817</v>
       </c>
       <c r="E24" t="n">
-        <v>5.509248451519055</v>
+        <v>6.749541665147887</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.903030639271011</v>
+        <v>-3.734052745665992</v>
       </c>
       <c r="G24" t="n">
-        <v>1.632714614243748</v>
+        <v>1.89243408641999</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.483802759541901</v>
       </c>
       <c r="E25" t="n">
-        <v>5.746745463837981</v>
+        <v>6.711638754612055</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.094168190870994</v>
+        <v>-3.916519969885663</v>
       </c>
       <c r="G25" t="n">
-        <v>1.656978478606139</v>
+        <v>1.959139281073895</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.532575393749824</v>
       </c>
       <c r="E26" t="n">
-        <v>5.600829260974129</v>
+        <v>6.562665629316342</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.201643838122461</v>
+        <v>-3.944733985511013</v>
       </c>
       <c r="G26" t="n">
-        <v>1.748046344772069</v>
+        <v>2.018467485142532</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.56146384528597</v>
       </c>
       <c r="E27" t="n">
-        <v>5.647238125267889</v>
+        <v>6.412449485681416</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180205126334767</v>
+        <v>-3.962010903560917</v>
       </c>
       <c r="G27" t="n">
-        <v>1.689440286784701</v>
+        <v>1.958997169556213</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.569794429331403</v>
       </c>
       <c r="E28" t="n">
-        <v>5.613660772171555</v>
+        <v>6.196172833547909</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.185459288004613</v>
+        <v>-3.895857687119469</v>
       </c>
       <c r="G28" t="n">
-        <v>1.706110638721579</v>
+        <v>1.911561198842809</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.557718227151939</v>
       </c>
       <c r="E29" t="n">
-        <v>5.487815838938128</v>
+        <v>5.910693361589212</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.251664042743246</v>
+        <v>-3.865291207443902</v>
       </c>
       <c r="G29" t="n">
-        <v>1.68805820653119</v>
+        <v>1.867904296642537</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.526171735755338</v>
       </c>
       <c r="E30" t="n">
-        <v>5.482574180642155</v>
+        <v>5.755785708108741</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.119129499527247</v>
+        <v>-3.7131425301447</v>
       </c>
       <c r="G30" t="n">
-        <v>1.616937186177629</v>
+        <v>1.777074299540539</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.476021397278972</v>
       </c>
       <c r="E31" t="n">
-        <v>5.324072874534284</v>
+        <v>5.515246411454195</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.128728736098246</v>
+        <v>-3.580365848420032</v>
       </c>
       <c r="G31" t="n">
-        <v>1.440767087985044</v>
+        <v>1.597919249555948</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.409007320532916</v>
       </c>
       <c r="E32" t="n">
-        <v>4.934661699416365</v>
+        <v>5.106103082602123</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.101919367791447</v>
+        <v>-3.379661386044917</v>
       </c>
       <c r="G32" t="n">
-        <v>1.410909031175519</v>
+        <v>1.451861545095091</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.327712750509563</v>
       </c>
       <c r="E33" t="n">
-        <v>4.600406870938127</v>
+        <v>4.722047011026053</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.159605970358617</v>
+        <v>-3.282715409356828</v>
       </c>
       <c r="G33" t="n">
-        <v>1.234232088900556</v>
+        <v>1.29865861990613</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.234460903006594</v>
       </c>
       <c r="E34" t="n">
-        <v>4.122446192128572</v>
+        <v>4.316764480057796</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.794090267514333</v>
+        <v>-2.941745354227594</v>
       </c>
       <c r="G34" t="n">
-        <v>1.061901441368099</v>
+        <v>1.15752480506866</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.133552213127945</v>
       </c>
       <c r="E35" t="n">
-        <v>3.890755624652287</v>
+        <v>3.982954893673584</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.758677053180988</v>
+        <v>-2.808538678425818</v>
       </c>
       <c r="G35" t="n">
-        <v>1.020952586972588</v>
+        <v>1.088291489209634</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.028589165290435</v>
       </c>
       <c r="E36" t="n">
-        <v>3.593209482024807</v>
+        <v>3.638217968444754</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.528994954493234</v>
+        <v>-2.716374174883096</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9754647029007176</v>
+        <v>0.9943167410983234</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9225864374671632</v>
       </c>
       <c r="E37" t="n">
-        <v>3.185387241358572</v>
+        <v>3.253277511887398</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.551678514382171</v>
+        <v>-2.565594464542855</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9537210307746493</v>
+        <v>0.8767325735107723</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8198286384859208</v>
       </c>
       <c r="E38" t="n">
-        <v>3.002073142279237</v>
+        <v>2.919067817539239</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.407332247340269</v>
+        <v>-2.496729540772585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9580722048825699</v>
+        <v>0.7870211709299306</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7214231073409717</v>
       </c>
       <c r="E39" t="n">
-        <v>2.880692828399605</v>
+        <v>2.619108828714545</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.327291137089268</v>
+        <v>-2.344520786286723</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7761218884364428</v>
+        <v>0.6528733875239325</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6282544634829108</v>
       </c>
       <c r="E40" t="n">
-        <v>2.625676454561768</v>
+        <v>2.373254683282817</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.314267500878666</v>
+        <v>-2.309948042645936</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7210869160114354</v>
+        <v>0.5840609169318631</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5402825413048433</v>
       </c>
       <c r="E41" t="n">
-        <v>2.283258447745934</v>
+        <v>1.97019836278469</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.078458139072302</v>
+        <v>-2.147797581129081</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6906988381338168</v>
+        <v>0.5251364803512333</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4557209265903827</v>
       </c>
       <c r="E42" t="n">
-        <v>1.889981595378786</v>
+        <v>1.686174161560715</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.146499669928962</v>
+        <v>-2.053388569495926</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6239552184772769</v>
+        <v>0.4873128595033792</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3750333757700267</v>
       </c>
       <c r="E43" t="n">
-        <v>1.838046239833012</v>
+        <v>1.483965939757078</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.819933501501809</v>
+        <v>-1.958354389169104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5556880169702202</v>
+        <v>0.3920755755912002</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.297685212140169</v>
       </c>
       <c r="E44" t="n">
-        <v>1.402787327443942</v>
+        <v>1.189588944965982</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.804686094503785</v>
+        <v>-1.944550054492266</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6913630417507954</v>
+        <v>0.4462145745420648</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2228404703121498</v>
       </c>
       <c r="E45" t="n">
-        <v>1.253458618393685</v>
+        <v>1.036600101934559</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.804297575032696</v>
+        <v>-1.886148929852286</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5559667507194941</v>
+        <v>0.3694792343590381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1524119281331537</v>
       </c>
       <c r="E46" t="n">
-        <v>1.136472173069347</v>
+        <v>0.8679637439411654</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.756058948708692</v>
+        <v>-1.833012030573318</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4416578571660801</v>
+        <v>0.3237065173311267</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.08684240555112155</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8934157337818619</v>
+        <v>0.7092825112336534</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.659064483326802</v>
+        <v>-1.790033970086266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4227088415808714</v>
+        <v>0.2430060828285608</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.02739273677662008</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8957187942572625</v>
+        <v>0.593347569156029</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.595728490491254</v>
+        <v>-1.704615189228377</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4372194644013844</v>
+        <v>0.2260179622190972</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.02512556110236682</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8248496711431986</v>
+        <v>0.5138187922734962</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.595038670205852</v>
+        <v>-1.63369239309476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3814995510563889</v>
+        <v>0.1570664297127292</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07168293615275105</v>
       </c>
       <c r="E50" t="n">
-        <v>0.760124279006018</v>
+        <v>0.4304908194954999</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.551121331876608</v>
+        <v>-1.593147306187256</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3090001099733775</v>
+        <v>0.1095804455038324</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1125645847407963</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5532123489432998</v>
+        <v>0.2654298165092032</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.454783141142898</v>
+        <v>-1.53952247036689</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2461563231239646</v>
+        <v>0.07224903064211405</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1486830305047244</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5415890906065122</v>
+        <v>0.2175931279111763</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.450567979345893</v>
+        <v>-1.481272606054743</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1850575193307279</v>
+        <v>0.05504255843037459</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1818623887492392</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3252008229891594</v>
+        <v>0.1276816713483613</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.441988225186078</v>
+        <v>-1.429276868361971</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1683158066746704</v>
+        <v>0.05490532627810627</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2124563125380324</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1235531182874537</v>
+        <v>0.0342009589852167</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.454143944273667</v>
+        <v>-1.45224526120695</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1405949119164712</v>
+        <v>-0.04380057652273894</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2416620827135809</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2004555767359093</v>
+        <v>0.02544188814643784</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.46526157836943</v>
+        <v>-1.397090134408623</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1594591485276119</v>
+        <v>-0.009611472987626548</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2701405004143861</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1748736737910655</v>
+        <v>-0.0433077606159265</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.418929564080941</v>
+        <v>-1.431534184786616</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06820647639662793</v>
+        <v>-0.05954872839637379</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.29823103339028</v>
       </c>
       <c r="E57" t="n">
-        <v>0.05393494248140011</v>
+        <v>-0.0807892159641249</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.40363458327013</v>
+        <v>-1.396419831584877</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1234622401066182</v>
+        <v>-0.05616061903703833</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3269842049605294</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.02729856269264348</v>
+        <v>-0.06842246432238129</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.335492415501806</v>
+        <v>-1.366972861311481</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04521307680390289</v>
+        <v>-0.1062320569946701</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3563682972997991</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.003278056680274713</v>
+        <v>-0.08096060367429112</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.45596638725579</v>
+        <v>-1.420688575312682</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08211815711257438</v>
+        <v>-0.09940033549441515</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3862996548945588</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2009033345188269</v>
+        <v>-0.1353332022443502</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.450990044454202</v>
+        <v>-1.472595264586649</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03979637127370338</v>
+        <v>-0.1397807438191971</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4169649267627931</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2141282445527551</v>
+        <v>-0.1060978744457856</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.402963670525707</v>
+        <v>-1.507414416180842</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07211423817255273</v>
+        <v>-0.1231366184714193</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4479134927010614</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1958659996495647</v>
+        <v>-0.0515837742787209</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.262994194260148</v>
+        <v>-1.525271063833995</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.007297433940044415</v>
+        <v>-0.1610279405143924</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4791626914892387</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2173461860432779</v>
+        <v>-0.0896159879980228</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.337415495395593</v>
+        <v>-1.593210128016961</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04089971777794062</v>
+        <v>-0.1389799179706269</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5104159728072618</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3524405663395889</v>
+        <v>-0.092065429435843</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.433629872231922</v>
+        <v>-1.690081389422148</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01230602653131492</v>
+        <v>-0.1267150230819002</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5408091630482288</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2535699849560217</v>
+        <v>-0.0342181127703502</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.545774767224234</v>
+        <v>-1.791230024533369</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04278010322435488</v>
+        <v>-0.1258300281799387</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5700654656138995</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3201092811858511</v>
+        <v>-0.02789689487653332</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.650010820801154</v>
+        <v>-1.901618957897323</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1169703204294965</v>
+        <v>-0.1579612593517032</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5977727475761206</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3201977196839796</v>
+        <v>0.01602715258015482</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.612855673015016</v>
+        <v>-1.946576210980423</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.12801293428202</v>
+        <v>-0.1863988109050814</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6236331584555467</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3975643277674405</v>
+        <v>0.03482856736159045</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.665682122669519</v>
+        <v>-2.018062573819356</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.145542664452436</v>
+        <v>-0.1710105122307279</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6472939772774382</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2375949425906366</v>
+        <v>0.02862811376176969</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.828096679839406</v>
+        <v>-2.053307450045919</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1199302654737548</v>
+        <v>-0.1661262674513294</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6682006607097812</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2213070109180797</v>
+        <v>0.019108471839086</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.678693560466585</v>
+        <v>-2.089704466430859</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09521140028650948</v>
+        <v>-0.189358146028663</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6857555148236683</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3552016772432274</v>
+        <v>0.02250024072248195</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.883712296748677</v>
+        <v>-2.201898155077311</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1784905794103661</v>
+        <v>-0.2166490467097548</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6992149472679844</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2191777778355523</v>
+        <v>-0.01594488929497838</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.965126338443038</v>
+        <v>-2.250057491713338</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2765371579596466</v>
+        <v>-0.2498500787485353</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7069530398948792</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.04611156596693733</v>
+        <v>0.08034999707068176</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.936543625768594</v>
+        <v>-2.247116454210059</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3326968241125776</v>
+        <v>-0.2901042334932304</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7080438188352697</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05680408535100753</v>
+        <v>0.1081227350864046</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.103668600325006</v>
+        <v>-2.35341159999168</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3148859205101808</v>
+        <v>-0.3097400197604574</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7021310604273151</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.102339543235664</v>
+        <v>0.158478396079401</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.084857426812742</v>
+        <v>-2.318455216245218</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2855633740548411</v>
+        <v>-0.3116448020339416</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6886947178199373</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1002944032003432</v>
+        <v>0.2383847138608408</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.0912798915389</v>
+        <v>-2.317556193167692</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.268259314534822</v>
+        <v>-0.2845838414479838</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6676295729082156</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1104855677881265</v>
+        <v>0.3404683573695167</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.955390174680109</v>
+        <v>-2.272672130565802</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2630938963234427</v>
+        <v>-0.3187839235552776</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6384722050379321</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2859896326017035</v>
+        <v>0.450232731960481</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.993602924919728</v>
+        <v>-2.256018246487197</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2400547526799615</v>
+        <v>-0.2793464525967482</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6014978450804466</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4999327282259732</v>
+        <v>0.6239564383186303</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.954642411930416</v>
+        <v>-2.16107494434121</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2667479310978403</v>
+        <v>-0.2693480229428173</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5571324223270251</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5111540488367841</v>
+        <v>0.7146461536649759</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.02651119503367</v>
+        <v>-2.175040907997387</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2428744159685678</v>
+        <v>-0.2791781144899657</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5066736951954194</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6837536713876867</v>
+        <v>0.8788599768312695</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.807960758617245</v>
+        <v>-2.061398047822982</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2053630745072088</v>
+        <v>-0.2756478936129479</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4505738914919783</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8718916330994229</v>
+        <v>1.011223132337103</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949862463586741</v>
+        <v>-2.090652893083202</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1188647340514759</v>
+        <v>-0.1816237419268208</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3900755269821784</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9823427783724055</v>
+        <v>1.177635719543073</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.97053328524241</v>
+        <v>-2.006490548819415</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1306435221608344</v>
+        <v>-0.2334944458808594</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3258725899175128</v>
       </c>
       <c r="E84" t="n">
-        <v>1.122741638794394</v>
+        <v>1.42555505638627</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.712959514006968</v>
+        <v>-1.895804584085884</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1754470752333933</v>
+        <v>-0.1814462550098871</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2580846273404963</v>
       </c>
       <c r="E85" t="n">
-        <v>1.285946653161347</v>
+        <v>1.586025796359361</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.564634734390638</v>
+        <v>-1.770875751708933</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2357816484186646</v>
+        <v>-0.1159072286899246</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1881733991749399</v>
       </c>
       <c r="E86" t="n">
-        <v>1.388781109023099</v>
+        <v>1.693246801728286</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.265116108294555</v>
+        <v>-1.604288117268736</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2019694758617825</v>
+        <v>-0.1561668727207104</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1176152751774024</v>
       </c>
       <c r="E87" t="n">
-        <v>1.563876526983255</v>
+        <v>1.848152015526051</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.20388007234905</v>
+        <v>-1.468825344883669</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1500078937269085</v>
+        <v>-0.07824950626614599</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0500003764206226</v>
       </c>
       <c r="E88" t="n">
-        <v>1.674622263943107</v>
+        <v>1.957135691650777</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.129567947014743</v>
+        <v>-1.345381669354599</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0006322207845416382</v>
+        <v>-0.005170640540223937</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01021385399577062</v>
       </c>
       <c r="E89" t="n">
-        <v>1.585212772097256</v>
+        <v>2.025598067774393</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8867780430629973</v>
+        <v>-1.208086085335905</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09320415133933163</v>
+        <v>0.009098453692296879</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05966825671221864</v>
       </c>
       <c r="E90" t="n">
-        <v>1.631397185581972</v>
+        <v>2.096769711544124</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.968432393503997</v>
+        <v>-1.149145790817679</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04065704535477944</v>
+        <v>0.01156741259177302</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09503400959508665</v>
       </c>
       <c r="E91" t="n">
-        <v>1.585506143942772</v>
+        <v>2.112011019335382</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5490271492656392</v>
+        <v>-0.9079965734863855</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08262385735978307</v>
+        <v>-0.01972151812540236</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1157258043167367</v>
       </c>
       <c r="E92" t="n">
-        <v>1.503500479191965</v>
+        <v>2.111280944285314</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5250121325393612</v>
+        <v>-0.7739177111168599</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1386060365957803</v>
+        <v>0.04703856938940982</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1228094367294721</v>
       </c>
       <c r="E93" t="n">
-        <v>1.514643729956152</v>
+        <v>2.105118305767452</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2531241329413189</v>
+        <v>-0.5452944347239411</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09419588235972397</v>
+        <v>0.06371441061237848</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1181388920377104</v>
       </c>
       <c r="E94" t="n">
-        <v>1.53958521619041</v>
+        <v>2.094981424119899</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08887188477239018</v>
+        <v>-0.3821174767081192</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1737685735309826</v>
+        <v>0.02222089705253134</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1044756135357573</v>
       </c>
       <c r="E95" t="n">
-        <v>1.499076724523511</v>
+        <v>2.005800042607151</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07261627889570094</v>
+        <v>-0.2074697405246965</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06197438292780082</v>
+        <v>0.03143984808157824</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08438599481412977</v>
       </c>
       <c r="E96" t="n">
-        <v>1.387167258912424</v>
+        <v>1.956925269017299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217093280816443</v>
+        <v>-0.03732992806311879</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1594939900123711</v>
+        <v>0.004175173989586554</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06090151833107158</v>
       </c>
       <c r="E97" t="n">
-        <v>1.276746609673279</v>
+        <v>1.783206442024564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2291255080671285</v>
+        <v>0.1305928227384798</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05912666328806414</v>
+        <v>0.009912697795755536</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03525434939250994</v>
       </c>
       <c r="E98" t="n">
-        <v>1.11714195706117</v>
+        <v>1.62530956730735</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3788683532568977</v>
+        <v>0.2005421854720076</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07635387280281303</v>
+        <v>-0.0461493810488957</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.009772260088368312</v>
       </c>
       <c r="E99" t="n">
-        <v>1.042783477755431</v>
+        <v>1.466800332230681</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4545503604311805</v>
+        <v>0.2714723006537462</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0996674807508308</v>
+        <v>-0.07322314996906525</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01935680572930911</v>
       </c>
       <c r="E100" t="n">
-        <v>1.01497841394384</v>
+        <v>1.276458727113854</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3621424985384357</v>
+        <v>0.2738400127208822</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1371824817362503</v>
+        <v>-0.08552403017772009</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04993841956328785</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8820401032398338</v>
+        <v>1.1536572980574</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3994214602219538</v>
+        <v>0.3027655008156588</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.296050960091524</v>
+        <v>-0.1682628195819779</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08734397645553925</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8883729096265089</v>
+        <v>1.011759252611964</v>
       </c>
       <c r="F102" t="n">
-        <v>0.429740007142423</v>
+        <v>0.2696638858471882</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1845025675210717</v>
+        <v>-0.1779776361212209</v>
       </c>
     </row>
   </sheetData>
